--- a/descriptions.xlsx
+++ b/descriptions.xlsx
@@ -41,13 +41,13 @@
     <t>Jad Okaily</t>
   </si>
   <si>
-    <t>Beautiful interactions of strings, weaving endlessly into the infinite.</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
     <t>Title</t>
+  </si>
+  <si>
+    <t>Beautiful interactions of strings, weaving endlessly into the infinite. Hi Sara</t>
   </si>
 </sst>
 </file>
@@ -368,24 +368,24 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -411,7 +411,7 @@
         <v>2025</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/descriptions.xlsx
+++ b/descriptions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Artist</t>
   </si>
@@ -47,7 +47,13 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Beautiful interactions of strings, weaving endlessly into the infinite. Hi Sara</t>
+    <t>Purple bloom</t>
+  </si>
+  <si>
+    <t>Sun rising beneath an endless purple wind.</t>
+  </si>
+  <si>
+    <t>Beautiful interactions of strings, weaving endlessly into the infinite.</t>
   </si>
 </sst>
 </file>
@@ -365,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,7 +417,24 @@
         <v>2025</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>2025</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
